--- a/meccsek.xlsx
+++ b/meccsek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Ferencváros_ikt\frencvaros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Projekt\Barcelona-FC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{493218F7-3F82-4272-9CC2-68DE3CAE8D15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A92B85B-E11F-430D-8D9A-8B326CC676C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{5FC65A24-690D-4A73-A785-DF68F0C280A8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>3 03</t>
   </si>
@@ -37,6 +37,30 @@
   </si>
   <si>
     <t>Párizs</t>
+  </si>
+  <si>
+    <t>4 12</t>
+  </si>
+  <si>
+    <t>Brno</t>
+  </si>
+  <si>
+    <t>4 29</t>
+  </si>
+  <si>
+    <t>Kijev</t>
+  </si>
+  <si>
+    <t>5 06</t>
+  </si>
+  <si>
+    <t>Bécs</t>
+  </si>
+  <si>
+    <t>5 24</t>
+  </si>
+  <si>
+    <t>Róma</t>
   </si>
 </sst>
 </file>
@@ -73,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -389,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4E8F23-14B4-4050-96BB-D63EE271FEFE}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,6 +438,38 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
